--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120AFE1-0CBC-4080-9362-BE44ABE39101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ADB0BD-CB71-42BB-A0AA-72B4080ED066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C791A80-8C74-4D13-8367-5B1D2CCE5FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBA1CD0-3200-48AB-B61D-07F88B41F797}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62368E8D-FF63-41A0-831E-AD0EFCAEC755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F74256-DA3B-421D-86C5-7B11A7F29A1B}">
   <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339A870-2BD6-4E98-BB3A-AFC17F9D28C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DC5375-9F29-485E-B3F6-3392A7DA4477}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ADB0BD-CB71-42BB-A0AA-72B4080ED066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD37D1B-354D-4090-A19D-178797EB0E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBA1CD0-3200-48AB-B61D-07F88B41F797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88263C11-E2E3-40FC-A25C-83A92BB74100}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F74256-DA3B-421D-86C5-7B11A7F29A1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5405F-C575-41F3-A626-E29745540EA9}">
   <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DC5375-9F29-485E-B3F6-3392A7DA4477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93455C52-D4B7-40B5-9871-6AB4B5959E5B}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD37D1B-354D-4090-A19D-178797EB0E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7BF71-C61B-498D-B49B-79FAFAD9B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88263C11-E2E3-40FC-A25C-83A92BB74100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0275E8F-E432-4574-BC31-65070FD7424D}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5405F-C575-41F3-A626-E29745540EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D821DA-4BA1-461D-8652-A42083A33C0D}">
   <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93455C52-D4B7-40B5-9871-6AB4B5959E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD71F7E-3782-44C8-86C5-B0AD58F3B21C}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7BF71-C61B-498D-B49B-79FAFAD9B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A1204-27C8-4F6C-8F3F-BF7126F9AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0275E8F-E432-4574-BC31-65070FD7424D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB5A4E-9023-43FE-8897-60367ABCE261}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1566,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D821DA-4BA1-461D-8652-A42083A33C0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78121A6E-068D-4A3D-BB39-76248D82CE8E}">
   <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD71F7E-3782-44C8-86C5-B0AD58F3B21C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB3F81C-2B27-460C-91A5-DC6B656050F4}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
